--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed4/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.766</v>
+        <v>6.821000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.972</v>
+        <v>-21.846</v>
       </c>
       <c r="B9" t="n">
-        <v>6.279999999999999</v>
+        <v>5.518000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.57</v>
+        <v>-11.169</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.01</v>
+        <v>6.108</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.09</v>
+        <v>-21.844</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.712</v>
+        <v>-20.879</v>
       </c>
       <c r="B16" t="n">
-        <v>7.188000000000001</v>
+        <v>6.677000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.442</v>
+        <v>-21.798</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.078</v>
+        <v>-20.027</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.448</v>
+        <v>-12.329</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>6.172</v>
+        <v>6.842000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.369999999999999</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.712</v>
+        <v>-20.959</v>
       </c>
       <c r="B26" t="n">
-        <v>8.48</v>
+        <v>7.002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.82</v>
+        <v>-21.495</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.528</v>
+        <v>-13.017</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.122</v>
+        <v>-21.333</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.954</v>
+        <v>-12.053</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.502</v>
+        <v>-12.633</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.409999999999999</v>
+        <v>7.256</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.67</v>
+        <v>-21.37</v>
       </c>
       <c r="B35" t="n">
-        <v>6.382</v>
+        <v>6.333</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.604</v>
+        <v>-20.714</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.954</v>
+        <v>-12.086</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.688</v>
+        <v>-11.714</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.556</v>
+        <v>-12.741</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.998</v>
+        <v>-12.546</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1048,7 +1048,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.720000000000001</v>
+        <v>5.790000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.718</v>
+        <v>-21.422</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.878</v>
+        <v>-12.819</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1104,10 +1104,10 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.03</v>
+        <v>5.518000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.406</v>
+        <v>-11.328</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.27</v>
+        <v>5.93</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.342</v>
+        <v>-11.235</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.468000000000001</v>
+        <v>5.269</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.82</v>
+        <v>-22.124</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.894</v>
+        <v>-12.5</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.454</v>
+        <v>-21.646</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.318</v>
+        <v>-13.216</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1289,7 +1289,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.03</v>
+        <v>-12.624</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.042</v>
+        <v>-11.023</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.468</v>
+        <v>5.491</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.33</v>
+        <v>5.012</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.708</v>
+        <v>-21.361</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>5.930000000000001</v>
+        <v>5.745</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1485,7 +1485,7 @@
         <v>8.09</v>
       </c>
       <c r="C75" t="n">
-        <v>-13.006</v>
+        <v>-12.43</v>
       </c>
       <c r="D75" t="n">
         <v>-7.62</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.216</v>
+        <v>-20.293</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.908</v>
+        <v>-20.923</v>
       </c>
       <c r="B78" t="n">
-        <v>6.746</v>
+        <v>6.795</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>7.386</v>
+        <v>6.738000000000001</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-20.978</v>
+        <v>-21.258</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.614</v>
+        <v>-11.541</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.452</v>
+        <v>-21.529</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.878</v>
+        <v>-11.009</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.078</v>
+        <v>5.469</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.236</v>
+        <v>-21.305</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.39</v>
+        <v>-11.708</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.364</v>
+        <v>-21.46100000000001</v>
       </c>
       <c r="B97" t="n">
-        <v>5.638</v>
+        <v>5.3</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.772</v>
+        <v>5.347</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.036</v>
+        <v>-12.456</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>7.196</v>
+        <v>7.495</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-13.458</v>
+        <v>-12.498</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
